--- a/Archivos/CONFIGURACION/Config.xlsx
+++ b/Archivos/CONFIGURACION/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\CONFIGURACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\CONFIGURACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7025A53-1AAE-4513-8BF2-B1BEECB513C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4532D2F-7E32-407B-B53D-817327E7CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="231">
   <si>
     <t>Name</t>
   </si>
@@ -816,13 +816,22 @@
     <t>END POINTS PARA MODULO "CHAT_RPA"</t>
   </si>
   <si>
-    <t>00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX</t>
-  </si>
-  <si>
     <t>C:\Users\USR\AppData\Local\Programs\Python\Python38\</t>
   </si>
   <si>
     <t>C:\Program Files\Python38\</t>
+  </si>
+  <si>
+    <t>340_CUADREAJUSTESMONE_NF_FNF_CCRE</t>
+  </si>
+  <si>
+    <t>Cred_CtrlD</t>
+  </si>
+  <si>
+    <t>Usr_DIP_CCRELIVSB_ControlD</t>
+  </si>
+  <si>
+    <t>Credentials for ControlD</t>
   </si>
 </sst>
 </file>
@@ -1495,16 +1504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
     <col min="3" max="3" width="92" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1544,12 +1553,12 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.5">
+    <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="24" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>128</v>
@@ -1566,7 +1575,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.5">
+    <row r="5" spans="1:26">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1590,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>133</v>
@@ -1593,7 +1602,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\"&amp;B4&amp;"\"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\Temporal\</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\Temporal\</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>134</v>
@@ -1605,7 +1614,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\"&amp;B4&amp;""</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\Temporal</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\Temporal</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>136</v>
@@ -1617,7 +1626,7 @@
       </c>
       <c r="B9" t="str">
         <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\FORMATOS\"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\FORMATOS\</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\FORMATOS\</v>
       </c>
       <c r="C9" t="s">
         <v>137</v>
@@ -1629,7 +1638,7 @@
       </c>
       <c r="B10" s="2" t="str">
         <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\CONFIGURACION\"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\CONFIGURACION\</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\CONFIGURACION\</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>139</v>
@@ -1641,7 +1650,7 @@
       </c>
       <c r="B11" s="2" t="str">
         <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\Exceptions_Screenshots\"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\Exceptions_Screenshots\</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\Exceptions_Screenshots\</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>141</v>
@@ -1652,15 +1661,15 @@
         <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,14 +1701,14 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.5">
+    <row r="23" spans="1:3">
       <c r="A23" s="20" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1">
+    <row r="24" spans="1:3" ht="14.1" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14" customHeight="1">
+    <row r="38" spans="1:4" ht="14.1" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>155</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13" customHeight="1">
+    <row r="40" spans="1:4" ht="12.95" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>160</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="180.5" customHeight="1">
+    <row r="43" spans="1:4" ht="180.6" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -2003,7 +2012,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="58.5" thickBot="1">
+    <row r="59" spans="1:4" ht="60.75" thickBot="1">
       <c r="A59" s="15" t="s">
         <v>74</v>
       </c>
@@ -2015,7 +2024,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" thickBot="1">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
       <c r="A60" s="15" t="s">
         <v>164</v>
       </c>
@@ -2187,7 +2196,7 @@
       </c>
       <c r="C74" s="32"/>
     </row>
-    <row r="75" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
+    <row r="75" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
       <c r="A75" s="15" t="s">
         <v>170</v>
       </c>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="C75" s="32"/>
     </row>
-    <row r="76" spans="1:4" ht="14.5" customHeight="1" thickBot="1">
+    <row r="76" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
       <c r="A76" s="19" t="s">
         <v>95</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="44" customHeight="1">
+    <row r="80" spans="1:4" ht="44.1" customHeight="1">
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" ht="51" customHeight="1">
@@ -2249,7 +2258,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="51.5" customHeight="1">
+    <row r="84" spans="1:3" ht="51.6" customHeight="1">
       <c r="A84" s="40" t="s">
         <v>220</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14" customHeight="1">
+    <row r="86" spans="1:3" ht="14.1" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>103</v>
       </c>
@@ -3220,12 +3229,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="89.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.54296875" customWidth="1"/>
-    <col min="4" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3358,7 +3367,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3369,7 +3378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="29">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3380,12 +3389,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.5">
+    <row r="7" spans="1:26">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="14.5">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3396,7 +3405,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.5">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.5">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.5">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3429,7 +3438,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.5">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -3440,7 +3449,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.5">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.5">
+    <row r="14" spans="1:26">
       <c r="A14" s="45" t="s">
         <v>202</v>
       </c>
@@ -3490,7 +3499,7 @@
       </c>
       <c r="B17" s="50" t="str">
         <f>"D:\Procesos_UiPath\"&amp;Settings!B3&amp;"\"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>219</v>
@@ -3505,7 +3514,7 @@
       </c>
       <c r="B19" s="8" t="str">
         <f>"D:\Procesos_UiPath\"&amp;Settings!B3&amp;"\Archivos"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>43</v>
@@ -3517,7 +3526,7 @@
       </c>
       <c r="B20" s="21" t="str">
         <f>"D:\Procesos_UiPath\"&amp;Settings!B3&amp;"\Archivos\Exceptions_Screenshots"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\Exceptions_Screenshots</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\Exceptions_Screenshots</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -3578,7 +3587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.5">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3628,7 +3637,7 @@
       </c>
       <c r="B30" s="47" t="str">
         <f>"D:\Procesos_UiPath\"&amp;Settings!B3&amp;"\Archivos\LOG"</f>
-        <v>D:\Procesos_UiPath\00_GENERICO_WINDOWS_NEGOCIOS_FINANCIEROS_XX_XX_XX\Archivos\LOG</v>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\LOG</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4611,12 +4620,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="60.26953125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -5662,21 +5671,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5702,6 +5711,20 @@
       </c>
       <c r="D2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/CONFIGURACION/Config.xlsx
+++ b/Archivos/CONFIGURACION/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\CONFIGURACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4532D2F-7E32-407B-B53D-817327E7CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9A5910-4476-4BCE-96B8-2C3C6A5E8364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="234">
   <si>
     <t>Name</t>
   </si>
@@ -832,6 +832,15 @@
   </si>
   <si>
     <t>Credentials for ControlD</t>
+  </si>
+  <si>
+    <t>ID_ERROR</t>
+  </si>
+  <si>
+    <t>1g3CCGoJ8sPsaC8AxBLOLE-L31YExmMhQ</t>
+  </si>
+  <si>
+    <t>ZIP_ERROR</t>
   </si>
 </sst>
 </file>
@@ -1502,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1658,426 +1667,424 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"D:\Procesos_UiPath\"&amp;B3&amp;"\Archivos\"&amp;B4&amp;"_ERROR.zip"</f>
+        <v>D:\Procesos_UiPath\340_CUADREAJUSTESMONE_NF_FNF_CCRE\Archivos\Temporal_ERROR.zip</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.1" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:26" ht="14.1" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C17" s="2"/>
+    </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.1" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" t="s">
-        <v>148</v>
+        <v>51</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>156</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.95" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.95" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="180.6" customHeight="1">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:4" ht="180.6" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C44" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="30"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.25" customHeight="1">
-      <c r="D45" s="13"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>175</v>
-      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="4"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>177</v>
+        <v>58</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>176</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="2" t="s">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="34"/>
-    </row>
-    <row r="53" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="14" t="s">
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A54" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A54" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>179</v>
-      </c>
+      <c r="C54" s="31"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="15" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A59" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B59" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C59" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" ht="60.75" thickBot="1">
-      <c r="A59" s="15" t="s">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="60.75" thickBot="1">
+      <c r="A60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C60" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A60" s="15" t="s">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A61" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A61" s="15" t="s">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A62" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C62" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A62" s="17" t="s">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A63" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B63" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C63" s="33" t="s">
         <v>187</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A63" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>188</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>188</v>
@@ -2086,10 +2093,10 @@
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="32" t="s">
         <v>188</v>
@@ -2098,44 +2105,44 @@
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A67" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="32" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A67" s="17" t="s">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A68" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B68" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C68" s="33" t="s">
         <v>190</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A68" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>191</v>
@@ -2144,10 +2151,10 @@
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>191</v>
@@ -2156,10 +2163,10 @@
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>191</v>
@@ -2168,160 +2175,179 @@
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="15" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="32"/>
+        <v>98</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>191</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>193</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A75" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="32"/>
-    </row>
-    <row r="75" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A75" s="15" t="s">
+      <c r="C75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A76" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>171</v>
       </c>
-      <c r="C75" s="32"/>
-    </row>
-    <row r="76" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A76" s="19" t="s">
+      <c r="C76" s="32"/>
+    </row>
+    <row r="77" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A77" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B77" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C77" s="31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A78" s="20" t="s">
+    <row r="78" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+    </row>
+    <row r="79" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A79" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-    </row>
-    <row r="79" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A79" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="44.1" customHeight="1">
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" ht="51" customHeight="1">
-      <c r="B81" s="21"/>
-    </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A82" s="36" t="s">
+    <row r="81" spans="1:3" ht="44.1" customHeight="1">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="51" customHeight="1">
+      <c r="B82" s="21"/>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A83" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="36"/>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A83" s="38" t="s">
+      <c r="B83" s="37"/>
+      <c r="C83" s="36"/>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A84" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39" t="s">
+      <c r="B84" s="39"/>
+      <c r="C84" s="39" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="51.6" customHeight="1">
-      <c r="A84" s="40" t="s">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A85" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="39"/>
+    </row>
+    <row r="86" spans="1:3" ht="51.6" customHeight="1">
+      <c r="A86" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B86" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C86" s="42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="42" customHeight="1">
-      <c r="A85" s="40" t="s">
+    <row r="87" spans="1:3" ht="42" customHeight="1">
+      <c r="A87" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B87" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C87" s="42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.1" customHeight="1">
-      <c r="A86" s="2" t="s">
+    <row r="88" spans="1:3" ht="14.1" customHeight="1">
+      <c r="A88" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A87" s="12" t="s">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A89" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-    </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A90" s="12" t="s">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A92" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-    </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A91" s="22" t="s">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A93" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B93" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="22"/>
-    </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-    </row>
+      <c r="C93" s="22"/>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="95" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+    </row>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -3214,6 +3240,8 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5673,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
